--- a/Execute/Data/X_file/염소 프레임 정보.xlsx
+++ b/Execute/Data/X_file/염소 프레임 정보.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,26 @@
   </si>
   <si>
     <t>Bite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핥쨕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BowIdle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -901,7 +921,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -913,7 +933,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -924,8 +944,11 @@
         <f>SUM($B$1:B34)</f>
         <v>545</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -936,10 +959,43 @@
         <f>SUM($B$1:B35)</f>
         <v>567</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>777</v>
+      </c>
+      <c r="D37">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>692</v>
+      </c>
+      <c r="D38">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
